--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_5\Desktop\a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNICA-A01\Desktop\proyecto-integrador-2025-main\proyecto-integrador-2025-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451C2FC5-6AF6-4D4C-9260-89FC40FFB6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,19 +72,19 @@
     <t>Organizador De Cables Para Rack</t>
   </si>
   <si>
-    <t>Ets 24-port Cat6a Ftp Shielded 1u Patch Panel 19-inch Loa...</t>
-  </si>
-  <si>
     <t>Cable De Red Vention Cat6a Certificado - 3 Metros - Premium Patch Cord - Blindado Sstp Rj45 Ethernet Servidores 10gbps - 500 Mhz - 100% Cobre - Pc Computadora Notebook - Gris - Ibhhi</t>
+  </si>
+  <si>
+    <t>Ets 24-port Cat6a Ftp Shielded 1u Patch Panel 19-inch Loa…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -171,20 +172,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -465,11 +464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,28 +499,28 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
-        <v>72</v>
+      <c r="D3" s="5">
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>D3*E3</f>
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>177</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>D4*E4</f>
         <v>354</v>
       </c>
@@ -530,13 +529,13 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>215</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f>D5*E5</f>
         <v>645</v>
       </c>
@@ -545,13 +544,13 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>34</v>
       </c>
       <c r="E6" s="1">
         <v>17</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>D6*E6</f>
         <v>578</v>
       </c>
@@ -560,13 +559,13 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>719</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
         <f>D7*E7</f>
         <v>719</v>
       </c>
@@ -575,14 +574,14 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>476</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <f>D8*E8</f>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ref="F3:F15" si="0">D8*E8</f>
         <v>476</v>
       </c>
     </row>
@@ -590,13 +589,13 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>139</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
         <f>D9*E9</f>
         <v>139</v>
       </c>
@@ -605,13 +604,13 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>46</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
         <f>D10*E10</f>
         <v>46</v>
       </c>
@@ -620,13 +619,13 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>59</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
         <f>D11*E11</f>
         <v>59</v>
       </c>
@@ -635,13 +634,13 @@
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>19</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
         <f>D12*E12</f>
         <v>19</v>
       </c>
@@ -650,51 +649,51 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>17</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
         <f>D13*E13</f>
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7">
         <v>67</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
         <f>D14*E14</f>
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7">
         <v>7</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9">
-        <f>D15*E15</f>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f>F3+F4+F5+F6+F7+F8+F9+F10+F11+F12+F13+F14+F15</f>
-        <v>3270</v>
+        <v>3280</v>
       </c>
     </row>
   </sheetData>
